--- a/xlsx/hfc_inputs.xlsx
+++ b/xlsx/hfc_inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box Sync\GitHub\high-frequency-checks\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box Sync\GitHub\ipaghdmsetup\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="0. setup" sheetId="15" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>variable</t>
   </si>
@@ -218,6 +218,81 @@
   </si>
   <si>
     <t>Field Comments</t>
+  </si>
+  <si>
+    <t>${dir_survey}/${dta_survey_raw}_prepped</t>
+  </si>
+  <si>
+    <t>${dir_tools}/${xlsx_hfc_inputs}</t>
+  </si>
+  <si>
+    <t>${dir_hfc}/${xlsx_hfc_output}</t>
+  </si>
+  <si>
+    <t>${dir_hfc}/${xlsx_hfc_enum_db}</t>
+  </si>
+  <si>
+    <t>${dir_hfc}/${xlsx_research_db}</t>
+  </si>
+  <si>
+    <t>${dir_hfc_repl}/${xlsx_hfc_repl}</t>
+  </si>
+  <si>
+    <t>${dir_hfc}/${xlsx_hfc_repl_log}</t>
+  </si>
+  <si>
+    <t>${dir_preloads}/${tracking_data}</t>
+  </si>
+  <si>
+    <t>${dir_hfc}/${xlsx_text_audit_db}</t>
+  </si>
+  <si>
+    <t>${dir_survey}/media</t>
+  </si>
+  <si>
+    <t>submissiondate</t>
+  </si>
+  <si>
+    <t>skey</t>
+  </si>
+  <si>
+    <t>${var_enum_id}</t>
+  </si>
+  <si>
+    <t>formdef_version</t>
+  </si>
+  <si>
+    <t>${var_geo_cluster}</t>
+  </si>
+  <si>
+    <t>${var_text_audit}</t>
+  </si>
+  <si>
+    <t>${var_field_comments}</t>
+  </si>
+  <si>
+    <t>${val_sample_size}</t>
+  </si>
+  <si>
+    <t>${txt_scto_server}</t>
+  </si>
+  <si>
+    <t>${val_dk}</t>
+  </si>
+  <si>
+    <t>${val_rf}</t>
+  </si>
+  <si>
+    <t>${val_na}</t>
+  </si>
+  <si>
+    <t>${varl_keep_vars}</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>All variables</t>
   </si>
 </sst>
 </file>
@@ -494,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -570,11 +645,172 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="50">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -12100,8 +12336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12134,70 +12370,90 @@
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>62</v>
+      </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="39" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
@@ -12216,49 +12472,63 @@
       <c r="A16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>77</v>
+      </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
@@ -12277,35 +12547,45 @@
       <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
@@ -12365,7 +12645,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -12387,7 +12667,9 @@
     <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
@@ -12445,13 +12727,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>$A1="child"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="21" priority="1">
+  <conditionalFormatting sqref="A1:D1 A3:D1048576 A2:B2 D2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12464,7 +12751,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -12497,7 +12784,9 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="4"/>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
@@ -12512,17 +12801,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>$A1="startdate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 A3:G1048576 A2:B2 D2:G2">
-    <cfRule type="expression" dxfId="19" priority="2">
+  <conditionalFormatting sqref="A1:G1 A3:G1048576 A2:B2 D2:E2 G2">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="28" priority="2">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12536,7 +12830,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -12564,7 +12858,9 @@
     </row>
     <row r="2" spans="1:6" s="27" customFormat="1">
       <c r="A2" s="26"/>
-      <c r="D2" s="4"/>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
     </row>
@@ -12593,17 +12889,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1 A3:E1048576 A2:C2 E2">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12617,7 +12913,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -12632,7 +12928,9 @@
       <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" s="27" customFormat="1">
-      <c r="A2" s="4"/>
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
     </row>
@@ -12648,18 +12946,18 @@
     <row r="5" spans="1:3" s="27" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="B2 A1:B1 A3:B1048576">
-    <cfRule type="expression" dxfId="14" priority="2">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12671,7 +12969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -12918,12 +13216,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$A1="dkrf_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"", $E1&lt;&gt;"", $F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13108,12 +13406,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13297,22 +13595,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>$A$1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A3:D1048576 D2">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A2&lt;&gt;"", $B2&lt;&gt;"", $C2&lt;&gt;"", $D2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>OR($A2&lt;&gt;"", $B2&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13325,8 +13623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -13348,7 +13646,9 @@
     <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
@@ -13584,23 +13884,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$A1="group_name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1 A5:D1048576 B2:D4">
-    <cfRule type="expression" dxfId="2" priority="24">
+  <conditionalFormatting sqref="A1:D1 A5:D1048576 B3:D4 B2 D2">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>OR($A1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $D1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A3&lt;&gt;"", $B3&lt;&gt;"", $D3&lt;&gt;"", $E3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>OR($A2&lt;&gt;"", $B2&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $D2&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($A2&lt;&gt;"", $B2&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $D2&lt;&gt;"")</formula>
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13613,7 +13918,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -13645,17 +13950,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13669,7 +13979,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -13687,6 +13997,9 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
@@ -13696,13 +14009,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="47" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="36" priority="1">
+  <conditionalFormatting sqref="A1:C1 A3:C1048576 A2 C2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13715,7 +14033,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -13734,18 +14052,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="34" priority="1">
+  <conditionalFormatting sqref="A1:D1 A3:D1048576 A2:B2 D2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13758,7 +14086,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -13775,7 +14103,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="3"/>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="3"/>
@@ -13806,13 +14136,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="32" priority="1">
+  <conditionalFormatting sqref="A1:C1 A3:C1048576 A2 C2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13825,7 +14160,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -13858,12 +14193,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13877,7 +14212,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -13903,7 +14238,9 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
@@ -13924,13 +14261,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="28" priority="1">
+  <conditionalFormatting sqref="A1:E1 A3:E1048576 A2:C2 E2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13943,7 +14285,7 @@
   <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -13957,7 +14299,12 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="3"/>
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="3"/>
@@ -14481,12 +14828,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14499,8 +14846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -14540,7 +14887,9 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="3"/>
@@ -15014,17 +15363,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:I1 A3:I1048576 A2:G2 I2">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xlsx/hfc_inputs.xlsx
+++ b/xlsx/hfc_inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box Sync\GitHub\ipaghdmsetup\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box Sync\GitHub\dmsetup\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0. setup" sheetId="15" r:id="rId1"/>
@@ -235,9 +235,6 @@
     <t>${dir_hfc}/${xlsx_research_db}</t>
   </si>
   <si>
-    <t>${dir_hfc_repl}/${xlsx_hfc_repl}</t>
-  </si>
-  <si>
     <t>${dir_hfc}/${xlsx_hfc_repl_log}</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>All variables</t>
+  </si>
+  <si>
+    <t>${dir_repl}/${xlsx_hfc_repl}</t>
   </si>
 </sst>
 </file>
@@ -627,6 +627,7 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -645,156 +646,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.49995422223578601"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="47">
     <dxf>
       <border>
         <left style="thin">
@@ -1000,6 +856,22 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1042,8 +914,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.49995422223578601"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1059,6 +929,51 @@
         </top>
         <bottom style="thin">
           <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1096,19 +1011,62 @@
     <dxf>
       <border>
         <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color theme="0" tint="-0.49995422223578601"/>
         </left>
         <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color theme="0" tint="-0.49995422223578601"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color theme="0" tint="-0.49995422223578601"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1183,8 +1141,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.49995422223578601"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1259,20 +1215,7 @@
         <bottom style="thin">
           <color theme="0" tint="-0.49995422223578601"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1317,6 +1260,22 @@
         <bottom style="thin">
           <color theme="0" tint="-0.49995422223578601"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.49995422223578601"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1346,20 +1305,7 @@
         <bottom style="thin">
           <color theme="0" tint="-0.49995422223578601"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -12337,7 +12283,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12348,16 +12294,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
@@ -12397,7 +12343,7 @@
       <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="33" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="10"/>
@@ -12406,7 +12352,7 @@
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="10"/>
@@ -12415,8 +12361,8 @@
       <c r="A9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>66</v>
+      <c r="B9" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -12424,8 +12370,8 @@
       <c r="A10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>67</v>
+      <c r="B10" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="10"/>
     </row>
@@ -12434,7 +12380,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -12443,7 +12389,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -12452,7 +12398,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="10"/>
     </row>
@@ -12473,7 +12419,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="10"/>
     </row>
@@ -12482,7 +12428,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10"/>
     </row>
@@ -12491,7 +12437,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="10"/>
     </row>
@@ -12500,7 +12446,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="10"/>
     </row>
@@ -12509,7 +12455,7 @@
         <v>47</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="10"/>
     </row>
@@ -12518,7 +12464,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="10"/>
     </row>
@@ -12527,7 +12473,7 @@
         <v>60</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="10"/>
     </row>
@@ -12548,7 +12494,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="10"/>
     </row>
@@ -12557,7 +12503,7 @@
         <v>45</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="10"/>
     </row>
@@ -12566,7 +12512,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="10"/>
     </row>
@@ -12575,7 +12521,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="10"/>
     </row>
@@ -12584,7 +12530,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="10"/>
     </row>
@@ -12668,7 +12614,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -12727,17 +12673,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>$A1="child"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A3:D1048576 A2:B2 D2">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12785,7 +12731,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="24"/>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12801,22 +12747,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>$A1="startdate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1 A3:G1048576 A2:B2 D2:E2 G2">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12859,7 +12805,7 @@
     <row r="2" spans="1:6" s="27" customFormat="1">
       <c r="A2" s="26"/>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -12889,17 +12835,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1 A3:E1048576 A2:C2 E2">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12929,7 +12875,7 @@
     </row>
     <row r="2" spans="1:3" s="27" customFormat="1">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -12946,17 +12892,17 @@
     <row r="5" spans="1:3" s="27" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="B2 A1:B1 A3:B1048576">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13216,12 +13162,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$A1="dkrf_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"", $E1&lt;&gt;"", $F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13406,12 +13352,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13595,22 +13541,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$A$1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A3:D1048576 D2">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A2&lt;&gt;"", $B2&lt;&gt;"", $C2&lt;&gt;"", $D2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>OR($A2&lt;&gt;"", $B2&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13623,7 +13569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -13647,7 +13593,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -13884,22 +13830,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A1="group_name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A5:D1048576 B3:D4 B2 D2">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="3" priority="25">
       <formula>OR($A1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $D1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A3&lt;&gt;"", $B3&lt;&gt;"", $D3&lt;&gt;"", $E3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR($A2&lt;&gt;"", $B2&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $D2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13952,7 +13898,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -13960,12 +13906,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13998,7 +13944,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14009,17 +13955,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A3:C1048576 A2 C2">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14054,7 +14000,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -14062,17 +14008,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A3:D1048576 A2:B2 D2">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14085,8 +14031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -14104,7 +14050,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14136,17 +14082,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 A3:C1048576 A2 C2">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14193,12 +14139,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14239,7 +14185,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14261,17 +14207,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1 A3:E1048576 A2:C2 E2">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14300,10 +14246,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14828,12 +14774,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14888,7 +14834,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="3"/>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -15363,17 +15309,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:I1 A3:I1048576 A2:G2 I2">
-    <cfRule type="expression" dxfId="34" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
